--- a/Templates/TemplateComponent.xlsx
+++ b/Templates/TemplateComponent.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master-c\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D39B98-8360-4BFC-A93A-307F683D4051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF2368-9BFC-43C2-966E-BF5BE3D0F67A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicators" sheetId="1" r:id="rId1"/>
-    <sheet name="PCA Overall Explained" sheetId="6" r:id="rId2"/>
-    <sheet name="PCA Overall Coefficients" sheetId="3" r:id="rId3"/>
-    <sheet name="PCA Overall Scores" sheetId="4" r:id="rId4"/>
+    <sheet name="CATFIN VaR" sheetId="7" r:id="rId1"/>
+    <sheet name="Indicators" sheetId="1" r:id="rId2"/>
+    <sheet name="PCA Overall Explained" sheetId="6" r:id="rId3"/>
+    <sheet name="PCA Overall Coefficients" sheetId="3" r:id="rId4"/>
+    <sheet name="PCA Overall Scores" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -378,7 +379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F66B61-FBD3-4547-B4D8-EC814C4FE598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59FDDE35-2973-412E-ADA5-3AE47A7206C7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -390,6 +391,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F66B61-FBD3-4547-B4D8-EC814C4FE598}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D526922-AE2E-485A-8075-2B57948085FB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -401,7 +414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E177BA4B-F0A9-4731-B532-05714A00699F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -415,7 +428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029B0FC9-0440-43C4-8C47-F5DB1128CD75}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Templates/TemplateComponent.xlsx
+++ b/Templates/TemplateComponent.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF2368-9BFC-43C2-966E-BF5BE3D0F67A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB1E70-80E7-41DB-9DDF-C461EF4B32C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="CATFIN VaR" sheetId="7" r:id="rId1"/>
+    <sheet name="CATFIN VaRs" sheetId="7" r:id="rId1"/>
     <sheet name="Indicators" sheetId="1" r:id="rId2"/>
     <sheet name="PCA Overall Explained" sheetId="6" r:id="rId3"/>
     <sheet name="PCA Overall Coefficients" sheetId="3" r:id="rId4"/>

--- a/Templates/TemplateComponent.xlsx
+++ b/Templates/TemplateComponent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB1E70-80E7-41DB-9DDF-C461EF4B32C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B672E-09B7-489A-954A-484D5AA7ED42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="CATFIN VaRs" sheetId="7" r:id="rId1"/>

--- a/Templates/TemplateComponent.xlsx
+++ b/Templates/TemplateComponent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B672E-09B7-489A-954A-484D5AA7ED42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A875C500-93FF-407F-9DE7-E92C36721385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="CATFIN VaRs" sheetId="7" r:id="rId1"/>

--- a/Templates/TemplateComponent.xlsx
+++ b/Templates/TemplateComponent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A875C500-93FF-407F-9DE7-E92C36721385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0803FD48-C6E3-4B19-AE5E-637FF18A6B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
